--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcowillems/Library/Mobile Documents/com~apple~CloudDocs/School/Semester 3/SmartMobile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcowillems/Library/Mobile Documents/com~apple~CloudDocs/School/Semester 3/SmartMobile/Git/SmartMobile/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -535,9 +535,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -559,9 +561,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
